--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,72 +528,72 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.952602191066213</v>
+        <v>0.1000065</v>
       </c>
       <c r="H2">
-        <v>0.952602191066213</v>
+        <v>0.200013</v>
       </c>
       <c r="I2">
-        <v>0.2266776702352141</v>
+        <v>0.018498441592177</v>
       </c>
       <c r="J2">
-        <v>0.2266776702352141</v>
+        <v>0.01652251707491153</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.75186754781861</v>
+        <v>0.095045</v>
       </c>
       <c r="N2">
-        <v>1.75186754781861</v>
+        <v>0.19009</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03541474254866415</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0327906746074529</v>
       </c>
       <c r="Q2">
-        <v>1.668832864509802</v>
+        <v>0.0095051177925</v>
       </c>
       <c r="R2">
-        <v>1.668832864509802</v>
+        <v>0.03802047117</v>
       </c>
       <c r="S2">
-        <v>0.2266776702352141</v>
+        <v>0.0006551175465384494</v>
       </c>
       <c r="T2">
-        <v>0.2266776702352141</v>
+        <v>0.0005417844810995084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,49 +602,2157 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>3.2498505255059</v>
+        <v>0.1000065</v>
       </c>
       <c r="H3">
-        <v>3.2498505255059</v>
+        <v>0.200013</v>
       </c>
       <c r="I3">
-        <v>0.773322329764786</v>
+        <v>0.018498441592177</v>
       </c>
       <c r="J3">
-        <v>0.773322329764786</v>
+        <v>0.01652251707491153</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.75186754781861</v>
+        <v>0.05612333333333333</v>
       </c>
       <c r="N3">
-        <v>1.75186754781861</v>
+        <v>0.16837</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02091213005389932</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02904395751305616</v>
       </c>
       <c r="Q3">
-        <v>5.693307670895043</v>
+        <v>0.005612698135</v>
       </c>
       <c r="R3">
-        <v>5.693307670895043</v>
+        <v>0.03367618881</v>
       </c>
       <c r="S3">
-        <v>0.773322329764786</v>
+        <v>0.0003868418163700658</v>
       </c>
       <c r="T3">
-        <v>0.773322329764786</v>
+        <v>0.0004798792839324753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.1000065</v>
+      </c>
+      <c r="H4">
+        <v>0.200013</v>
+      </c>
+      <c r="I4">
+        <v>0.018498441592177</v>
+      </c>
+      <c r="J4">
+        <v>0.01652251707491153</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.124867</v>
+      </c>
+      <c r="O4">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="P4">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="Q4">
+        <v>0.004162503878500001</v>
+      </c>
+      <c r="R4">
+        <v>0.024975023271</v>
+      </c>
+      <c r="S4">
+        <v>0.0002868906401655937</v>
+      </c>
+      <c r="T4">
+        <v>0.0003558893303248583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.1000065</v>
+      </c>
+      <c r="H5">
+        <v>0.200013</v>
+      </c>
+      <c r="I5">
+        <v>0.018498441592177</v>
+      </c>
+      <c r="J5">
+        <v>0.01652251707491153</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.654899</v>
+      </c>
+      <c r="O5">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="P5">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="Q5">
+        <v>0.0218313856145</v>
+      </c>
+      <c r="R5">
+        <v>0.130988313687</v>
+      </c>
+      <c r="S5">
+        <v>0.001504676122224504</v>
+      </c>
+      <c r="T5">
+        <v>0.001866558550621216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.1000065</v>
+      </c>
+      <c r="H6">
+        <v>0.200013</v>
+      </c>
+      <c r="I6">
+        <v>0.018498441592177</v>
+      </c>
+      <c r="J6">
+        <v>0.01652251707491153</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.113491</v>
+      </c>
+      <c r="N6">
+        <v>0.340473</v>
+      </c>
+      <c r="O6">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="P6">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="Q6">
+        <v>0.0113498376915</v>
+      </c>
+      <c r="R6">
+        <v>0.068099026149</v>
+      </c>
+      <c r="S6">
+        <v>0.0007822604605628403</v>
+      </c>
+      <c r="T6">
+        <v>0.0009703981673596346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.1000065</v>
+      </c>
+      <c r="H7">
+        <v>0.200013</v>
+      </c>
+      <c r="I7">
+        <v>0.018498441592177</v>
+      </c>
+      <c r="J7">
+        <v>0.01652251707491153</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.159188</v>
+      </c>
+      <c r="N7">
+        <v>4.318376</v>
+      </c>
+      <c r="O7">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="P7">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="Q7">
+        <v>0.215932834722</v>
+      </c>
+      <c r="R7">
+        <v>0.8637313388879999</v>
+      </c>
+      <c r="S7">
+        <v>0.01488265500631555</v>
+      </c>
+      <c r="T7">
+        <v>0.01230800726157384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9926850000000002</v>
+      </c>
+      <c r="H8">
+        <v>2.978055</v>
+      </c>
+      <c r="I8">
+        <v>0.1836193196635242</v>
+      </c>
+      <c r="J8">
+        <v>0.2460088323635246</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.095045</v>
+      </c>
+      <c r="N8">
+        <v>0.19009</v>
+      </c>
+      <c r="O8">
+        <v>0.03541474254866415</v>
+      </c>
+      <c r="P8">
+        <v>0.0327906746074529</v>
+      </c>
+      <c r="Q8">
+        <v>0.09434974582500003</v>
+      </c>
+      <c r="R8">
+        <v>0.5660984749500001</v>
+      </c>
+      <c r="S8">
+        <v>0.006502830932844573</v>
+      </c>
+      <c r="T8">
+        <v>0.008066795572591764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9926850000000002</v>
+      </c>
+      <c r="H9">
+        <v>2.978055</v>
+      </c>
+      <c r="I9">
+        <v>0.1836193196635242</v>
+      </c>
+      <c r="J9">
+        <v>0.2460088323635246</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.16837</v>
+      </c>
+      <c r="O9">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="P9">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="Q9">
+        <v>0.05571279115</v>
+      </c>
+      <c r="R9">
+        <v>0.50141512035</v>
+      </c>
+      <c r="S9">
+        <v>0.003839871093212129</v>
+      </c>
+      <c r="T9">
+        <v>0.007145070075002763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9926850000000002</v>
+      </c>
+      <c r="H10">
+        <v>2.978055</v>
+      </c>
+      <c r="I10">
+        <v>0.1836193196635242</v>
+      </c>
+      <c r="J10">
+        <v>0.2460088323635246</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.124867</v>
+      </c>
+      <c r="O10">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="P10">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="Q10">
+        <v>0.04131786596500001</v>
+      </c>
+      <c r="R10">
+        <v>0.3718607936850001</v>
+      </c>
+      <c r="S10">
+        <v>0.002847735248536669</v>
+      </c>
+      <c r="T10">
+        <v>0.005298945566641148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9926850000000002</v>
+      </c>
+      <c r="H11">
+        <v>2.978055</v>
+      </c>
+      <c r="I11">
+        <v>0.1836193196635242</v>
+      </c>
+      <c r="J11">
+        <v>0.2460088323635246</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.654899</v>
+      </c>
+      <c r="O11">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="P11">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="Q11">
+        <v>0.216702804605</v>
+      </c>
+      <c r="R11">
+        <v>1.950325241445</v>
+      </c>
+      <c r="S11">
+        <v>0.01493572334188709</v>
+      </c>
+      <c r="T11">
+        <v>0.02779176365771358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9926850000000002</v>
+      </c>
+      <c r="H12">
+        <v>2.978055</v>
+      </c>
+      <c r="I12">
+        <v>0.1836193196635242</v>
+      </c>
+      <c r="J12">
+        <v>0.2460088323635246</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.113491</v>
+      </c>
+      <c r="N12">
+        <v>0.340473</v>
+      </c>
+      <c r="O12">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="P12">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="Q12">
+        <v>0.112660813335</v>
+      </c>
+      <c r="R12">
+        <v>1.013947320015</v>
+      </c>
+      <c r="S12">
+        <v>0.007764877535898399</v>
+      </c>
+      <c r="T12">
+        <v>0.01444855641531399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9926850000000002</v>
+      </c>
+      <c r="H13">
+        <v>2.978055</v>
+      </c>
+      <c r="I13">
+        <v>0.1836193196635242</v>
+      </c>
+      <c r="J13">
+        <v>0.2460088323635246</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.159188</v>
+      </c>
+      <c r="N13">
+        <v>4.318376</v>
+      </c>
+      <c r="O13">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="P13">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="Q13">
+        <v>2.14339353978</v>
+      </c>
+      <c r="R13">
+        <v>12.86036123868</v>
+      </c>
+      <c r="S13">
+        <v>0.1477282815111453</v>
+      </c>
+      <c r="T13">
+        <v>0.1832577010762614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.332048</v>
+      </c>
+      <c r="I14">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J14">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.095045</v>
+      </c>
+      <c r="N14">
+        <v>0.19009</v>
+      </c>
+      <c r="O14">
+        <v>0.03541474254866415</v>
+      </c>
+      <c r="P14">
+        <v>0.0327906746074529</v>
+      </c>
+      <c r="Q14">
+        <v>0.01051983405333333</v>
+      </c>
+      <c r="R14">
+        <v>0.06311900432000001</v>
+      </c>
+      <c r="S14">
+        <v>0.0007250544417712817</v>
+      </c>
+      <c r="T14">
+        <v>0.0008994338037034071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.332048</v>
+      </c>
+      <c r="I15">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J15">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.16837</v>
+      </c>
+      <c r="O15">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="P15">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="Q15">
+        <v>0.006211880195555556</v>
+      </c>
+      <c r="R15">
+        <v>0.05590692176</v>
+      </c>
+      <c r="S15">
+        <v>0.0004281390091045669</v>
+      </c>
+      <c r="T15">
+        <v>0.0007966629992611008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.332048</v>
+      </c>
+      <c r="I16">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J16">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.124867</v>
+      </c>
+      <c r="O16">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="P16">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="Q16">
+        <v>0.004606870846222222</v>
+      </c>
+      <c r="R16">
+        <v>0.041461837616</v>
+      </c>
+      <c r="S16">
+        <v>0.00031751757231015</v>
+      </c>
+      <c r="T16">
+        <v>0.0005908232982641556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.332048</v>
+      </c>
+      <c r="I17">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J17">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.654899</v>
+      </c>
+      <c r="O17">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="P17">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="Q17">
+        <v>0.02416198923911111</v>
+      </c>
+      <c r="R17">
+        <v>0.217457903152</v>
+      </c>
+      <c r="S17">
+        <v>0.001665307411792907</v>
+      </c>
+      <c r="T17">
+        <v>0.003098733750389592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.332048</v>
+      </c>
+      <c r="I18">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J18">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.113491</v>
+      </c>
+      <c r="N18">
+        <v>0.340473</v>
+      </c>
+      <c r="O18">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="P18">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="Q18">
+        <v>0.01256148652266667</v>
+      </c>
+      <c r="R18">
+        <v>0.113053378704</v>
+      </c>
+      <c r="S18">
+        <v>0.0008657704629498083</v>
+      </c>
+      <c r="T18">
+        <v>0.001610989139083119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.332048</v>
+      </c>
+      <c r="I19">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J19">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.159188</v>
+      </c>
+      <c r="N19">
+        <v>4.318376</v>
+      </c>
+      <c r="O19">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="P19">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="Q19">
+        <v>0.2389846856746667</v>
+      </c>
+      <c r="R19">
+        <v>1.433908114048</v>
+      </c>
+      <c r="S19">
+        <v>0.01647144878761902</v>
+      </c>
+      <c r="T19">
+        <v>0.02043291783629599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.271006</v>
+      </c>
+      <c r="I20">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J20">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.095045</v>
+      </c>
+      <c r="N20">
+        <v>0.19009</v>
+      </c>
+      <c r="O20">
+        <v>0.03541474254866415</v>
+      </c>
+      <c r="P20">
+        <v>0.0327906746074529</v>
+      </c>
+      <c r="Q20">
+        <v>0.008585921756666667</v>
+      </c>
+      <c r="R20">
+        <v>0.05151553054000001</v>
+      </c>
+      <c r="S20">
+        <v>0.0005917641547206065</v>
+      </c>
+      <c r="T20">
+        <v>0.0007340865098011298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.271006</v>
+      </c>
+      <c r="I21">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J21">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.16837</v>
+      </c>
+      <c r="O21">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="P21">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="Q21">
+        <v>0.005069920024444444</v>
+      </c>
+      <c r="R21">
+        <v>0.04562928022</v>
+      </c>
+      <c r="S21">
+        <v>0.000349432131202092</v>
+      </c>
+      <c r="T21">
+        <v>0.0006502085625504563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.271006</v>
+      </c>
+      <c r="I22">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J22">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.124867</v>
+      </c>
+      <c r="O22">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="P22">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="Q22">
+        <v>0.003759967355777778</v>
+      </c>
+      <c r="R22">
+        <v>0.033839706202</v>
+      </c>
+      <c r="S22">
+        <v>0.0002591467715555718</v>
+      </c>
+      <c r="T22">
+        <v>0.0004822093756606749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.271006</v>
+      </c>
+      <c r="I23">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J23">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.654899</v>
+      </c>
+      <c r="O23">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="P23">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="Q23">
+        <v>0.01972017315488889</v>
+      </c>
+      <c r="R23">
+        <v>0.177481558394</v>
+      </c>
+      <c r="S23">
+        <v>0.001359165844818666</v>
+      </c>
+      <c r="T23">
+        <v>0.002529078442749488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.271006</v>
+      </c>
+      <c r="I24">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J24">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.113491</v>
+      </c>
+      <c r="N24">
+        <v>0.340473</v>
+      </c>
+      <c r="O24">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="P24">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="Q24">
+        <v>0.01025224731533333</v>
+      </c>
+      <c r="R24">
+        <v>0.09227022583800001</v>
+      </c>
+      <c r="S24">
+        <v>0.0007066116648260966</v>
+      </c>
+      <c r="T24">
+        <v>0.001314833164561629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.271006</v>
+      </c>
+      <c r="I25">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J25">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.159188</v>
+      </c>
+      <c r="N25">
+        <v>4.318376</v>
+      </c>
+      <c r="O25">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="P25">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="Q25">
+        <v>0.1950509677093333</v>
+      </c>
+      <c r="R25">
+        <v>1.170305806256</v>
+      </c>
+      <c r="S25">
+        <v>0.01344342218636306</v>
+      </c>
+      <c r="T25">
+        <v>0.016676635098369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.298058</v>
+      </c>
+      <c r="I26">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J26">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.095045</v>
+      </c>
+      <c r="N26">
+        <v>0.19009</v>
+      </c>
+      <c r="O26">
+        <v>0.03541474254866415</v>
+      </c>
+      <c r="P26">
+        <v>0.0327906746074529</v>
+      </c>
+      <c r="Q26">
+        <v>0.009442974203333333</v>
+      </c>
+      <c r="R26">
+        <v>0.05665784522</v>
+      </c>
+      <c r="S26">
+        <v>0.0006508344480480674</v>
+      </c>
+      <c r="T26">
+        <v>0.0008073635157092653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.298058</v>
+      </c>
+      <c r="I27">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J27">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.16837</v>
+      </c>
+      <c r="O27">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="P27">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="Q27">
+        <v>0.005576002828888888</v>
+      </c>
+      <c r="R27">
+        <v>0.05018402546</v>
+      </c>
+      <c r="S27">
+        <v>0.0003843126800212288</v>
+      </c>
+      <c r="T27">
+        <v>0.0007151128157187068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.298058</v>
+      </c>
+      <c r="I28">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J28">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.124867</v>
+      </c>
+      <c r="O28">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="P28">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="Q28">
+        <v>0.004135289809555556</v>
+      </c>
+      <c r="R28">
+        <v>0.037217608286</v>
+      </c>
+      <c r="S28">
+        <v>0.0002850149754481843</v>
+      </c>
+      <c r="T28">
+        <v>0.00053034383774038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.298058</v>
+      </c>
+      <c r="I29">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J29">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.654899</v>
+      </c>
+      <c r="O29">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="P29">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="Q29">
+        <v>0.02168865401577778</v>
+      </c>
+      <c r="R29">
+        <v>0.195197886142</v>
+      </c>
+      <c r="S29">
+        <v>0.001494838687611942</v>
+      </c>
+      <c r="T29">
+        <v>0.002781532742777012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.298058</v>
+      </c>
+      <c r="I30">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J30">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.113491</v>
+      </c>
+      <c r="N30">
+        <v>0.340473</v>
+      </c>
+      <c r="O30">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="P30">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="Q30">
+        <v>0.01127563349266667</v>
+      </c>
+      <c r="R30">
+        <v>0.101480701434</v>
+      </c>
+      <c r="S30">
+        <v>0.0007771461133507624</v>
+      </c>
+      <c r="T30">
+        <v>0.001446080689589566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.298058</v>
+      </c>
+      <c r="I31">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J31">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.159188</v>
+      </c>
+      <c r="N31">
+        <v>4.318376</v>
+      </c>
+      <c r="O31">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="P31">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="Q31">
+        <v>0.2145210856346666</v>
+      </c>
+      <c r="R31">
+        <v>1.287126513808</v>
+      </c>
+      <c r="S31">
+        <v>0.01478535357159251</v>
+      </c>
+      <c r="T31">
+        <v>0.01834130795683368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.01315</v>
+      </c>
+      <c r="H32">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J32">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.095045</v>
+      </c>
+      <c r="N32">
+        <v>0.19009</v>
+      </c>
+      <c r="O32">
+        <v>0.03541474254866415</v>
+      </c>
+      <c r="P32">
+        <v>0.0327906746074529</v>
+      </c>
+      <c r="Q32">
+        <v>0.38142984175</v>
+      </c>
+      <c r="R32">
+        <v>1.525719367</v>
+      </c>
+      <c r="S32">
+        <v>0.02628914102474117</v>
+      </c>
+      <c r="T32">
+        <v>0.02174121072454782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.01315</v>
+      </c>
+      <c r="H33">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J33">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.05612333333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.16837</v>
+      </c>
+      <c r="O33">
+        <v>0.02091213005389932</v>
+      </c>
+      <c r="P33">
+        <v>0.02904395751305616</v>
+      </c>
+      <c r="Q33">
+        <v>0.2252313551666666</v>
+      </c>
+      <c r="R33">
+        <v>1.351388131</v>
+      </c>
+      <c r="S33">
+        <v>0.01552353332398923</v>
+      </c>
+      <c r="T33">
+        <v>0.01925702377659065</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.01315</v>
+      </c>
+      <c r="H34">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J34">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.04162233333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.124867</v>
+      </c>
+      <c r="O34">
+        <v>0.01550890861460026</v>
+      </c>
+      <c r="P34">
+        <v>0.02153965577467947</v>
+      </c>
+      <c r="Q34">
+        <v>0.1670366670166667</v>
+      </c>
+      <c r="R34">
+        <v>1.0022200021</v>
+      </c>
+      <c r="S34">
+        <v>0.01151260340658409</v>
+      </c>
+      <c r="T34">
+        <v>0.01428144436604826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.01315</v>
+      </c>
+      <c r="H35">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J35">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.2182996666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.654899</v>
+      </c>
+      <c r="O35">
+        <v>0.08134069644336051</v>
+      </c>
+      <c r="P35">
+        <v>0.1129705929283302</v>
+      </c>
+      <c r="Q35">
+        <v>0.8760693072833332</v>
+      </c>
+      <c r="R35">
+        <v>5.256415843699999</v>
+      </c>
+      <c r="S35">
+        <v>0.06038098503502539</v>
+      </c>
+      <c r="T35">
+        <v>0.07490292578407935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.01315</v>
+      </c>
+      <c r="H36">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J36">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.113491</v>
+      </c>
+      <c r="N36">
+        <v>0.340473</v>
+      </c>
+      <c r="O36">
+        <v>0.04228791147972479</v>
+      </c>
+      <c r="P36">
+        <v>0.05873186046411338</v>
+      </c>
+      <c r="Q36">
+        <v>0.45545640665</v>
+      </c>
+      <c r="R36">
+        <v>2.7327384399</v>
+      </c>
+      <c r="S36">
+        <v>0.03139124524213689</v>
+      </c>
+      <c r="T36">
+        <v>0.03894100288820544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.01315</v>
+      </c>
+      <c r="H37">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J37">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.159188</v>
+      </c>
+      <c r="N37">
+        <v>4.318376</v>
+      </c>
+      <c r="O37">
+        <v>0.804535610859751</v>
+      </c>
+      <c r="P37">
+        <v>0.7449232587123679</v>
+      </c>
+      <c r="Q37">
+        <v>8.665145322199999</v>
+      </c>
+      <c r="R37">
+        <v>34.6605812888</v>
+      </c>
+      <c r="S37">
+        <v>0.5972244497967155</v>
+      </c>
+      <c r="T37">
+        <v>0.493906689483034</v>
       </c>
     </row>
   </sheetData>
